--- a/apps/analysis/formats/formate_v2_parts/formatQC_returnAnalysis.xlsx
+++ b/apps/analysis/formats/formate_v2_parts/formatQC_returnAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\a1leader\y_data_assistant\analysis\formats\formate_v2_parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\python\a1leader\data_assistant\apps\analysis\formats\formate_v2_parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230FF44-7E5D-4ECB-8983-45F8BBF1A9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7257B0C-0C80-4A39-8753-033D672FBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="product_type_scrap" sheetId="9" r:id="rId10"/>
     <sheet name="input" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -53431,26 +53431,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A117:A118"/>
@@ -53460,6 +53440,26 @@
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O1" location="index!A1" display="العودة للفهرس" xr:uid="{CC49D472-56EC-4EA3-9CB5-84EB1649FD55}"/>
